--- a/Data/data_curation/Archivage_electronique.xlsx
+++ b/Data/data_curation/Archivage_electronique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rroll\Documents\GitHub\Memoire_Master\Memoire\Data\data_curation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBDC10B7-3D76-4CB1-BFB6-D2F145ECE9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9AF723-9659-4F2E-A988-EA645880ED87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{56BAF589-ABE3-4AC9-B6CE-2F655D5C1065}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
